--- a/vajrang/June 2022/RoboticEnterpriseFramework_Training/Data/Input/sample.xlsx
+++ b/vajrang/June 2022/RoboticEnterpriseFramework_Training/Data/Input/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\vajrang\June 2022\RoboticEnterpriseFramework_Training\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF46C83-CCF9-4305-B40F-6FD77337059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5639E-BD89-4B66-9BFB-82DB67A54B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FileName</t>
-  </si>
-  <si>
-    <t>TransactionNumber</t>
-  </si>
-  <si>
-    <t>TransactionItem</t>
-  </si>
-  <si>
-    <t>Indexes</t>
   </si>
   <si>
     <t>a</t>
@@ -381,107 +372,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/vajrang/June 2022/RoboticEnterpriseFramework_Training/Data/Input/sample.xlsx
+++ b/vajrang/June 2022/RoboticEnterpriseFramework_Training/Data/Input/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\vajrang\June 2022\RoboticEnterpriseFramework_Training\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5639E-BD89-4B66-9BFB-82DB67A54B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C997E034-F628-44C8-88A9-720AE311A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>FileName</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -372,62 +399,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
